--- a/notebooks/results/ANNSigSig_ST001047.xlsx
+++ b/notebooks/results/ANNSigSig_ST001047.xlsx
@@ -437,19 +437,19 @@
         <v>12.8042008738419</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.507917523384094</v>
+        <v>-1.17455780506134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0914536714553833</v>
+        <v>0.06164688616991043</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.03631768 -0.97402236 -1.46163459]</t>
+          <t>[-1.70248789 -0.65372844 -1.17378414]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0.06930261 0.13786789 0.09913512]</t>
+          <t>[0.03617567 0.08925737 0.06493626]</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
         <v>9.372663557352331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3528540134429932</v>
+        <v>-0.3873186111450195</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04013816267251968</v>
+        <v>0.0288491677492857</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.74161049  0.15212439 -0.34732722]</t>
+          <t>[-1.05079479  0.28564547 -0.4182618 ]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.02911772 0.05563394 0.04116456]</t>
+          <t>[0.0216225  0.04509488 0.02776689]</t>
         </is>
       </c>
     </row>
@@ -517,19 +517,19 @@
         <v>5.04915562556207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1230872869491577</v>
+        <v>0.6800880432128906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01657054200768471</v>
+        <v>0.03584418445825577</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.30375747  0.94826408  0.18308729]</t>
+          <t>[0.03061917 1.17476289 0.58257856]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.00572141 0.0327459  0.01472448]</t>
+          <t>[0.00360774 0.05901206 0.03186237]</t>
         </is>
       </c>
     </row>
@@ -557,19 +557,19 @@
         <v>5.13234006385694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7942982316017151</v>
+        <v>-0.4301844537258148</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06251833587884903</v>
+        <v>0.02345572225749493</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-1.1664768  -0.39173984 -0.76507338]</t>
+          <t>[-0.89541723 -0.13925576 -0.53114455]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0.04268165 0.0924739  0.06374855]</t>
+          <t>[0.01193831 0.04480068 0.02960722]</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
         <v>15.4761649136304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05779220163822174</v>
+        <v>0.4647567272186279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.021553760394454</v>
+        <v>0.02617938071489334</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.38415723  0.66250786  0.19072819]</t>
+          <t>[-0.50822993  0.94868398  0.37397168]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.01663542 0.02815121 0.01915316]</t>
+          <t>[0.01143354 0.04917809 0.0248981 ]</t>
         </is>
       </c>
     </row>
@@ -637,19 +637,19 @@
         <v>8.905710853410421</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.837755560874939</v>
+        <v>-1.314226746559143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03615047037601471</v>
+        <v>0.07137766480445862</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-1.39004326 -0.32169149 -0.79623979]</t>
+          <t>[-1.98583177 -0.7654839  -1.29488913]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.01435538 0.0583302  0.03409428]</t>
+          <t>[0.05149348 0.10891688 0.07811638]</t>
         </is>
       </c>
     </row>
@@ -677,19 +677,19 @@
         <v>4.20083681066561</v>
       </c>
       <c r="G8" t="n">
-        <v>0.432949423789978</v>
+        <v>-0.1504213064908981</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02887807786464691</v>
+        <v>0.02496334165334702</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.03073082 0.73873356 0.36266015]</t>
+          <t>[-0.68349618  0.29289641 -0.19231373]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.00841882 0.04306406 0.02418517]</t>
+          <t>[0.01926141 0.03313368 0.0254136 ]</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>18.1490341883149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2199253141880035</v>
+        <v>0.08866017311811447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01757098361849785</v>
+        <v>0.004421479534357786</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.17963259  0.64257402  0.24483507]</t>
+          <t>[-0.36341375  0.70054759  0.19501045]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.00783646 0.04036336 0.02060792]</t>
+          <t>[0.00226354 0.00541193 0.00228796]</t>
         </is>
       </c>
     </row>
@@ -757,19 +757,19 @@
         <v>16.4201497510561</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2407980710268021</v>
+        <v>-0.1401722133159637</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05435970425605774</v>
+        <v>0.03717754781246185</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.60290612  0.24315226 -0.24271404]</t>
+          <t>[-0.64407917  0.45199165 -0.14686722]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.04563625 0.06264682 0.0571695 ]</t>
+          <t>[0.03234103 0.04442065 0.03918163]</t>
         </is>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>10.475665966914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5721472501754761</v>
+        <v>0.4699371457099915</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03672104328870773</v>
+        <v>0.02662494406104088</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-1.02614706 -0.10823435 -0.53588315]</t>
+          <t>[-0.02731605  1.08542282  0.43692225]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.01860339 0.05870774 0.03740655]</t>
+          <t>[0.01942227 0.04206881 0.02538102]</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
         <v>4.16327952324079</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1191814914345741</v>
+        <v>1.249756574630737</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03454878181219101</v>
+        <v>0.0631897896528244</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[-0.56727311  0.54158624 -0.07664112]</t>
+          <t>[0.52337744 1.73563657 1.27332244]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.02169547 0.04691038 0.02988267]</t>
+          <t>[0.03684322 0.08887241 0.06902389]</t>
         </is>
       </c>
     </row>
@@ -877,19 +877,19 @@
         <v>9.49971351958197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8198615312576294</v>
+        <v>0.1771543025970459</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05588386207818985</v>
+        <v>0.02386552467942238</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.45846936 1.18553427 0.79875136]</t>
+          <t>[-0.36501527  0.67501006  0.19774739]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.03730313 0.07135646 0.05598523]</t>
+          <t>[0.01944959 0.03940643 0.02506118]</t>
         </is>
       </c>
     </row>
@@ -917,19 +917,19 @@
         <v>7.35629680015826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2166008949279785</v>
+        <v>0.1702107340097427</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0162377841770649</v>
+        <v>0.0330963209271431</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.15806771  0.73396887  0.21958806]</t>
+          <t>[-0.49165473  0.66961757  0.13047015]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.00707542 0.03283306 0.01688953]</t>
+          <t>[0.02627298 0.04088902 0.03353166]</t>
         </is>
       </c>
     </row>
@@ -957,19 +957,19 @@
         <v>10.5270026105767</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292680412530899</v>
+        <v>-0.1386368572711945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05541159957647324</v>
+        <v>0.02550584822893143</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.12491049  0.70722309  0.28249425]</t>
+          <t>[-0.59855644  0.23426341 -0.20056639]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.04564395 0.06503264 0.05736678]</t>
+          <t>[0.02128829 0.03140664 0.02674986]</t>
         </is>
       </c>
     </row>
@@ -997,19 +997,19 @@
         <v>6.2683318247799</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.134403705596924</v>
+        <v>-0.873599648475647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08689417690038681</v>
+        <v>0.04496737569570541</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-1.7695685  -0.62591238 -1.17113074]</t>
+          <t>[-1.42573768 -0.43182869 -0.92571292]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.06274887 0.10992711 0.09114412]</t>
+          <t>[0.02806411 0.06972175 0.05286347]</t>
         </is>
       </c>
     </row>
@@ -1037,19 +1037,19 @@
         <v>3.23499494857128</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4814014434814453</v>
+        <v>-1.219288110733032</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03845154121518135</v>
+        <v>0.06581789255142212</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.7933646  -0.22490009 -0.48921334]</t>
+          <t>[-1.5259041  -0.83043746 -1.16132695]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.02599305 0.04969441 0.04339856]</t>
+          <t>[0.04939725 0.07932384 0.06703951]</t>
         </is>
       </c>
     </row>
@@ -1077,19 +1077,19 @@
         <v>18.8260788445098</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3839644193649292</v>
+        <v>0.6691514253616333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03478540852665901</v>
+        <v>0.03365233540534973</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.95267708  0.04495485 -0.39217539]</t>
+          <t>[-0.03521216  1.28368344  0.6517583 ]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.01844887 0.05639415 0.03631914]</t>
+          <t>[0.0277531  0.06078969 0.03304213]</t>
         </is>
       </c>
     </row>
@@ -1117,19 +1117,19 @@
         <v>14.3585518548811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2022218704223633</v>
+        <v>-0.6100713014602661</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01360044907778502</v>
+        <v>0.0329425260424614</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.38931786  0.60399456  0.18076889]</t>
+          <t>[-1.15749564  0.07343636 -0.47593395]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.00243807 0.02936562 0.01270879]</t>
+          <t>[0.00554269 0.05637135 0.02508976]</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         <v>10.6115825535449</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2519625425338745</v>
+        <v>0.236505389213562</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01332825608551502</v>
+        <v>0.01224703248590231</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.54955402  0.07965833 -0.2373306 ]</t>
+          <t>[-0.14137334  0.62327106  0.22393613]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.00283091 0.0318354  0.01343442]</t>
+          <t>[0.00336876 0.03218922 0.01221301]</t>
         </is>
       </c>
     </row>
@@ -1197,19 +1197,19 @@
         <v>2.43157137126769</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3436585664749146</v>
+        <v>-0.2203558087348938</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01581271924078465</v>
+        <v>0.03822703659534454</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.96717505  0.16162881 -0.3605847 ]</t>
+          <t>[-0.76998379  0.46414617 -0.26000682]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.00375303 0.03777328 0.01581791]</t>
+          <t>[0.03129407 0.04469617 0.0388163 ]</t>
         </is>
       </c>
     </row>
@@ -1237,19 +1237,19 @@
         <v>16.1921649824113</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3410941958427429</v>
+        <v>0.2410093694925308</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0347265899181366</v>
+        <v>0.02653321996331215</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.82968025  0.03688627 -0.39424172]</t>
+          <t>[-0.4151123  0.6741755  0.1507014]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.02511869 0.0524794  0.03951458]</t>
+          <t>[0.01830115 0.03435764 0.02580789]</t>
         </is>
       </c>
     </row>
@@ -1277,19 +1277,19 @@
         <v>8.71508486022139</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5184680819511414</v>
+        <v>-1.558719635009766</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03566711395978928</v>
+        <v>0.08252980560064316</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.29129833 0.84734878 0.57074217]</t>
+          <t>[-1.8330721  -1.25610476 -1.54300184]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.01077887 0.05287487 0.03526453]</t>
+          <t>[0.07059922 0.10227482 0.08681631]</t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
         <v>6.07329505645181</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3833931684494019</v>
+        <v>-0.04871219396591187</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02284744568169117</v>
+        <v>0.01686586439609528</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.083857   0.77936427 0.3600911 ]</t>
+          <t>[-0.4147234   0.53949947 -0.03012024]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.01581282 0.03571399 0.0230897 ]</t>
+          <t>[0.0110241  0.02869104 0.01725887]</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
         <v>13.2804518023977</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.6619204878807068</v>
+        <v>-0.35700923204422</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05595988780260086</v>
+        <v>0.03713282942771912</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-1.06843071 -0.27368505 -0.67900742]</t>
+          <t>[-0.86906536 -0.08321102 -0.3974715 ]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.04292697 0.07437942 0.06168238]</t>
+          <t>[0.03040424 0.04360452 0.03675105]</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1397,19 @@
         <v>14.8833988150265</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2308477461338043</v>
+        <v>0.4390194416046143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01801634393632412</v>
+        <v>0.02255004830658436</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.9206161   0.34604677 -0.20497603]</t>
+          <t>[-0.32235494  1.02273532  0.3735517 ]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.00386921 0.0468341  0.01812919]</t>
+          <t>[0.00765629 0.04712547 0.01866704]</t>
         </is>
       </c>
     </row>
@@ -1437,19 +1437,19 @@
         <v>5.65626339296861</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.59425288438797</v>
+        <v>-0.7156450152397156</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05632457137107849</v>
+        <v>0.0390971451997757</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.88767901 -0.28920538 -0.58498428]</t>
+          <t>[-1.12505203 -0.32451208 -0.69799001]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.04880314 0.06668849 0.05771767]</t>
+          <t>[0.02305686 0.05728865 0.0398199 ]</t>
         </is>
       </c>
     </row>
@@ -1477,19 +1477,19 @@
         <v>4.06985188179461</v>
       </c>
       <c r="G28" t="n">
-        <v>1.507568955421448</v>
+        <v>1.995029449462891</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09011989086866379</v>
+        <v>0.1043620109558105</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[1.06457653 1.84910754 1.40551569]</t>
+          <t>[1.72055325 2.3640968  2.08375799]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.06712834 0.11643505 0.0908085 ]</t>
+          <t>[0.09407757 0.11886727 0.11537976]</t>
         </is>
       </c>
     </row>
@@ -1517,19 +1517,19 @@
         <v>10.5427542371552</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4790423810482025</v>
+        <v>-0.3903355300426483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04100380837917328</v>
+        <v>0.04684846103191376</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.95010784 -0.138949   -0.53032875]</t>
+          <t>[-1.01817134  0.07677543 -0.48393092]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.03056195 0.05913601 0.04403855]</t>
+          <t>[0.04240205 0.05206073 0.04782799]</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>15.7041429053511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4807307124137878</v>
+        <v>-0.06501074880361557</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04921259358525276</v>
+        <v>0.003940039314329624</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.06756627 0.98428054 0.50324194]</t>
+          <t>[-0.61330938  0.45821418 -0.07066235]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.0362417  0.07212355 0.05690991]</t>
+          <t>[0.00128864 0.00646487 0.00132134]</t>
         </is>
       </c>
     </row>
@@ -1597,19 +1597,19 @@
         <v>17.2939233224719</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2017745673656464</v>
+        <v>-0.02096069604158401</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01101288292557001</v>
+        <v>0.009488357231020927</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.2491191   0.67102246  0.20505315]</t>
+          <t>[-0.45041662  0.52216668  0.00856813]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.00103482 0.0275835  0.00921444]</t>
+          <t>[0.00338615 0.01719976 0.00723484]</t>
         </is>
       </c>
     </row>
@@ -1637,19 +1637,19 @@
         <v>6.64822149110939</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4253669381141663</v>
+        <v>-0.6008092164993286</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03815533220767975</v>
+        <v>0.03394017741084099</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[0.05467799 0.78374347 0.38150154]</t>
+          <t>[-0.98420441 -0.13523634 -0.56527377]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.02128394 0.05587255 0.03694646]</t>
+          <t>[0.02598786 0.04955934 0.03307965]</t>
         </is>
       </c>
     </row>
@@ -1677,19 +1677,19 @@
         <v>9.364352421008711</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.4122877717018127</v>
+        <v>-0.7180631160736084</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03876814246177673</v>
+        <v>0.03764420002698898</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.77709766 -0.11134979 -0.42598045]</t>
+          <t>[-1.09101665 -0.16076651 -0.68073169]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.02739423 0.05113831 0.03985925]</t>
+          <t>[0.01402545 0.05638156 0.03898944]</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
         <v>8.15506388476593</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.3663673102855682</v>
+        <v>-0.5534260869026184</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02880501374602318</v>
+        <v>0.02942603826522827</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.93558849  0.02753863 -0.42239901]</t>
+          <t>[-1.13385622  0.21447437 -0.46107918]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.019116   0.04982719 0.02949623]</t>
+          <t>[0.00405691 0.06144009 0.02894303]</t>
         </is>
       </c>
     </row>
@@ -1757,19 +1757,19 @@
         <v>15.9320417767385</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2125588357448578</v>
+        <v>0.5011665225028992</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01716003939509392</v>
+        <v>0.02600891701877117</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[-0.61707164  0.35213971 -0.18577013]</t>
+          <t>[0.00745176 0.95277745 0.37576618]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.01016467 0.03379768 0.01681744]</t>
+          <t>[0.00922799 0.04932347 0.02381043]</t>
         </is>
       </c>
     </row>
@@ -1797,19 +1797,19 @@
         <v>11.9378472875586</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.4306557774543762</v>
+        <v>0.5582351684570312</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02800565212965012</v>
+        <v>0.02870669402182102</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[-0.76650363 -0.02349205 -0.4181058 ]</t>
+          <t>[0.01191413 1.21290378 0.60581884]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.00905867 0.04215394 0.02590709]</t>
+          <t>[0.01120022 0.06143675 0.03151232]</t>
         </is>
       </c>
     </row>
@@ -1837,19 +1837,19 @@
         <v>18.6256353495308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6879175305366516</v>
+        <v>0.9495816230773926</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05184339731931686</v>
+        <v>0.04958160221576691</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.01238734 1.25124897 0.66072966]</t>
+          <t>[0.19619034 1.93169488 1.0755306 ]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.03109671 0.07997615 0.05564333]</t>
+          <t>[0.01676744 0.09486051 0.05367797]</t>
         </is>
       </c>
     </row>
@@ -1877,19 +1877,19 @@
         <v>2.97573692676797</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1076658144593239</v>
+        <v>-0.2176984995603561</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004407796543091536</v>
+        <v>0.01137256436049938</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.53901417  0.27045632 -0.12454893]</t>
+          <t>[-0.86601842  0.3470293  -0.21720406]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.00051384 0.01607384 0.00262091]</t>
+          <t>[0.00092556 0.04324273 0.01048126]</t>
         </is>
       </c>
     </row>
@@ -1917,19 +1917,19 @@
         <v>13.0219623560134</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1703211218118668</v>
+        <v>-0.6548660397529602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02589091844856739</v>
+        <v>0.03302009403705597</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.26515754  0.75318442  0.20176389]</t>
+          <t>[-1.34183373 -0.17406423 -0.73992733]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.0101342  0.03837643 0.02293447]</t>
+          <t>[0.02398642 0.06500569 0.03592657]</t>
         </is>
       </c>
     </row>
@@ -1957,19 +1957,19 @@
         <v>12.5968651960161</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7472057342529297</v>
+        <v>0.9774518609046936</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03965125232934952</v>
+        <v>0.05392277985811234</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.42094727 1.30361353 0.8309307 ]</t>
+          <t>[0.53377176 1.45304049 0.95732011]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[0.02525349 0.0649159  0.04568879]</t>
+          <t>[0.03413648 0.07800368 0.0583565 ]</t>
         </is>
       </c>
     </row>
@@ -1997,19 +1997,19 @@
         <v>13.9818037974324</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1610630452632904</v>
+        <v>0.320769190788269</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01005457527935505</v>
+        <v>0.01731883361935616</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.21625282  0.56164395  0.15398705]</t>
+          <t>[-0.15147513  0.98531941  0.4155059 ]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.00224885 0.02798346 0.00970494]</t>
+          <t>[0.00532909 0.05391674 0.02304264]</t>
         </is>
       </c>
     </row>
@@ -2037,19 +2037,19 @@
         <v>12.0011423977921</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2888748049736023</v>
+        <v>-0.3193209171295166</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05772725492715836</v>
+        <v>0.01981884241104126</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-0.93523573  0.45178397 -0.29310245]</t>
+          <t>[-1.33877839  0.28168455 -0.41087112]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.04291373 0.07459951 0.0593055 ]</t>
+          <t>[0.01270444 0.03592283 0.01887577]</t>
         </is>
       </c>
     </row>
@@ -2077,19 +2077,19 @@
         <v>19.1464856672245</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3661015033721924</v>
+        <v>-0.3685513138771057</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03343169763684273</v>
+        <v>0.01926205866038799</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.6205921   0.09451859 -0.17770407]</t>
+          <t>[-0.78430309  0.12334726 -0.29410388]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.02023286 0.0468902  0.03170792]</t>
+          <t>[0.00349175 0.03953158 0.01717883]</t>
         </is>
       </c>
     </row>
@@ -2117,19 +2117,19 @@
         <v>3.81350478775125</v>
       </c>
       <c r="G44" t="n">
-        <v>1.022590756416321</v>
+        <v>0.8326622247695923</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07641839981079102</v>
+        <v>0.04352710396051407</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.45423185 1.92982878 1.05928801]</t>
+          <t>[0.2987772  1.6781985  0.99595366]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.05716071 0.11653115 0.08097008]</t>
+          <t>[0.0180221  0.08439252 0.05177372]</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2157,19 @@
         <v>4.34862912988896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4835733473300934</v>
+        <v>0.2389197945594788</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03347226232290268</v>
+        <v>0.01220795046538115</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[0.14820038 1.077438   0.50272161]</t>
+          <t>[-0.25119815  0.80729351  0.24444328]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.0155781  0.05529759 0.03503505]</t>
+          <t>[0.00344356 0.03589504 0.01118095]</t>
         </is>
       </c>
     </row>
@@ -2197,19 +2197,19 @@
         <v>5.35937655592283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6901566982269287</v>
+        <v>0.8651721477508545</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03398874029517174</v>
+        <v>0.04807129502296448</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.26500951 1.23693864 0.64107782]</t>
+          <t>[0.12445901 1.55606748 0.84756014]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.02235416 0.05440676 0.03306415]</t>
+          <t>[0.03015236 0.08436965 0.04942348]</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2237,19 @@
         <v>15.5364012150061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8665904998779297</v>
+        <v>2.381232738494873</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03619049862027168</v>
+        <v>0.1280155181884766</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[0.52255154 1.2817599  0.93785083]</t>
+          <t>[1.84660539 2.84187033 2.35165023]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[0.01814723 0.05586398 0.03268857]</t>
+          <t>[0.11282031 0.15294303 0.13811298]</t>
         </is>
       </c>
     </row>
@@ -2277,19 +2277,19 @@
         <v>5.00522096920462</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.003864197991788387</v>
+        <v>-0.1973857581615448</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002404906321316957</v>
+        <v>0.01299405284225941</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.41471172  0.69737152  0.12663816]</t>
+          <t>[-0.83087329  0.46971365 -0.05779003]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.00075166 0.00207856 0.00075329]</t>
+          <t>[0.00594148 0.03082161 0.01093318]</t>
         </is>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>4.73533373690427</v>
       </c>
       <c r="G49" t="n">
-        <v>1.718338012695312</v>
+        <v>2.127722978591919</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07999325543642044</v>
+        <v>0.1113743782043457</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[1.28609532 2.13787633 1.67225478]</t>
+          <t>[1.58315111 2.52642044 2.10280369]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[0.05801247 0.10383507 0.0804909 ]</t>
+          <t>[0.09180337 0.13155158 0.11705767]</t>
         </is>
       </c>
     </row>
@@ -2357,19 +2357,19 @@
         <v>7.15116605857213</v>
       </c>
       <c r="G50" t="n">
-        <v>1.433470726013184</v>
+        <v>1.734889268875122</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09132182598114014</v>
+        <v>0.09115824103355408</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.84993215 2.16505778 1.47984967]</t>
+          <t>[1.21259712 2.39414044 1.76831154]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.0732359  0.12029041 0.09850022]</t>
+          <t>[0.06934602 0.1187705  0.10152632]</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>6.63548612638398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5773287415504456</v>
+        <v>0.3413133025169373</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02467723190784454</v>
+        <v>0.01727728173136711</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.23932944 1.08852791 0.66316083]</t>
+          <t>[-0.21475496  0.9146465   0.4306041 ]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.0108461  0.04951098 0.02509399]</t>
+          <t>[0.00823822 0.03942694 0.01695835]</t>
         </is>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>16.5619208190305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2001104652881622</v>
+        <v>0.2636563777923584</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02485915832221508</v>
+        <v>0.04525246471166611</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.32951092  0.76454438  0.18980452]</t>
+          <t>[-0.33530689  0.72899194  0.22827541]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.01543268 0.04442471 0.02273306]</t>
+          <t>[0.0389373  0.05111423 0.04700151]</t>
         </is>
       </c>
     </row>
@@ -2477,19 +2477,19 @@
         <v>8.351801436124299</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.5462784767150879</v>
+        <v>-0.2305612117052078</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03701169788837433</v>
+        <v>0.02669936418533325</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.95565397 -0.10163793 -0.5461342 ]</t>
+          <t>[-0.66294563  0.20870119 -0.2226269 ]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.02688037 0.05533135 0.0378825 ]</t>
+          <t>[0.02174497 0.03438059 0.02737962]</t>
         </is>
       </c>
     </row>

--- a/notebooks/results/ANNSigSig_ST001047.xlsx
+++ b/notebooks/results/ANNSigSig_ST001047.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +412,16 @@
           <t>VIP-95CI</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Coef_Test</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VIP_Test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -437,20 +447,26 @@
         <v>12.8042008738419</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.17455780506134</v>
+        <v>-1.358780264854431</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06164688616991043</v>
+        <v>0.08423599600791931</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-1.70248789 -0.65372844 -1.17378414]</t>
+          <t>[-1.83427585 -0.72721733 -1.35164869]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0.03617567 0.08925737 0.06493626]</t>
-        </is>
+          <t>[0.06421675 0.10709667 0.09082471]</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.344249844551086</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.08273112028837204</v>
       </c>
     </row>
     <row r="3">
@@ -477,20 +493,26 @@
         <v>9.372663557352331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3873186111450195</v>
+        <v>-0.5177978873252869</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0288491677492857</v>
+        <v>0.05045783147215843</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-1.05079479  0.28564547 -0.4182618 ]</t>
+          <t>[-1.26520838 -0.03939545 -0.56571335]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.0216225  0.04509488 0.02776689]</t>
-        </is>
+          <t>[0.038297   0.09125644 0.0530594 ]</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2514975666999817</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.05105138570070267</v>
       </c>
     </row>
     <row r="4">
@@ -517,20 +539,26 @@
         <v>5.04915562556207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6800880432128906</v>
+        <v>0.5197600722312927</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03584418445825577</v>
+        <v>0.06047007814049721</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.03061917 1.17476289 0.58257856]</t>
+          <t>[0.02299749 1.08223705 0.55386273]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.00360774 0.05901206 0.03186237]</t>
-        </is>
+          <t>[0.0404715  0.08451515 0.06453981]</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2918298244476318</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04425245895981789</v>
       </c>
     </row>
     <row r="5">
@@ -557,20 +585,26 @@
         <v>5.13234006385694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4301844537258148</v>
+        <v>-0.775056004524231</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02345572225749493</v>
+        <v>0.06358352303504944</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.89541723 -0.13925576 -0.53114455]</t>
+          <t>[-1.20714716 -0.36915247 -0.77778742]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0.01193831 0.04480068 0.02960722]</t>
-        </is>
+          <t>[0.04159408 0.09013911 0.06729479]</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.010148406028748</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.06859427690505981</v>
       </c>
     </row>
     <row r="6">
@@ -597,20 +631,26 @@
         <v>15.4761649136304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4647567272186279</v>
+        <v>0.5030621290206909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02617938071489334</v>
+        <v>0.05344233289361</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.50822993  0.94868398  0.37397168]</t>
+          <t>[-0.15867595  1.22439541  0.5478458 ]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.01143354 0.04917809 0.0248981 ]</t>
-        </is>
+          <t>[0.03393485 0.08082185 0.05626764]</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1.063819885253906</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0765593945980072</v>
       </c>
     </row>
     <row r="7">
@@ -637,20 +677,26 @@
         <v>8.905710853410421</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.314226746559143</v>
+        <v>-0.6311188936233521</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07137766480445862</v>
+        <v>0.05286784097552299</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-1.98583177 -0.7654839  -1.29488913]</t>
+          <t>[-1.26986171  0.11652289 -0.60647086]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.05149348 0.10891688 0.07811638]</t>
-        </is>
+          <t>[0.03214788 0.08419017 0.05330255]</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.9129284620285034</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.06316350400447845</v>
       </c>
     </row>
     <row r="8">
@@ -677,20 +723,26 @@
         <v>4.20083681066561</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1504213064908981</v>
+        <v>-0.3678545951843262</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02496334165334702</v>
+        <v>0.04695048928260803</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.68349618  0.29289641 -0.19231373]</t>
+          <t>[-0.78567705  0.04879503 -0.39509413]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.01926141 0.03313368 0.0254136 ]</t>
-        </is>
+          <t>[0.03458357 0.06492848 0.04832815]</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.4828011095523834</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04932359606027603</v>
       </c>
     </row>
     <row r="9">
@@ -717,20 +769,26 @@
         <v>18.1490341883149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08866017311811447</v>
+        <v>0.231181412935257</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004421479534357786</v>
+        <v>0.05093862861394882</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.36341375  0.70054759  0.19501045]</t>
+          <t>[-0.15067809  0.67325972  0.24636886]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.00226354 0.00541193 0.00228796]</t>
-        </is>
+          <t>[0.03906804 0.05913696 0.04533337]</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4142209887504578</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05419840663671494</v>
       </c>
     </row>
     <row r="10">
@@ -757,20 +815,26 @@
         <v>16.4201497510561</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1401722133159637</v>
+        <v>-0.3068000078201294</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03717754781246185</v>
+        <v>0.07061530649662018</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.64407917  0.45199165 -0.14686722]</t>
+          <t>[-1.05224619  0.11017057 -0.35062222]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.03234103 0.04442065 0.03918163]</t>
-        </is>
+          <t>[0.06329856 0.09126925 0.07411053]</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.1036931872367859</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.06516711413860321</v>
       </c>
     </row>
     <row r="11">
@@ -797,20 +861,26 @@
         <v>10.475665966914</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4699371457099915</v>
+        <v>-0.08864285051822662</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02662494406104088</v>
+        <v>0.05479104444384575</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.02731605  1.08542282  0.43692225]</t>
+          <t>[-0.56056014  0.41438453 -0.05892294]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.01942227 0.04206881 0.02538102]</t>
-        </is>
+          <t>[0.04581355 0.06204008 0.05148094]</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04175503551959991</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05208916217088699</v>
       </c>
     </row>
     <row r="12">
@@ -837,20 +907,26 @@
         <v>4.16327952324079</v>
       </c>
       <c r="G12" t="n">
-        <v>1.249756574630737</v>
+        <v>0.7916685938835144</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0631897896528244</v>
+        <v>0.05125096440315247</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.52337744 1.73563657 1.27332244]</t>
+          <t>[0.23219832 1.18167039 0.73420496]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.03684322 0.08887241 0.06902389]</t>
-        </is>
+          <t>[0.03797678 0.07871716 0.0540241 ]</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.7625997066497803</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04872750490903854</v>
       </c>
     </row>
     <row r="13">
@@ -877,20 +953,26 @@
         <v>9.49971351958197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1771543025970459</v>
+        <v>0.1424748003482819</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02386552467942238</v>
+        <v>0.04868102073669434</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.36501527  0.67501006  0.19774739]</t>
+          <t>[-0.16309924  0.64097705  0.23726646]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.01944959 0.03940643 0.02506118]</t>
-        </is>
+          <t>[0.03741347 0.05581565 0.04561071]</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4079355001449585</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05317065864801407</v>
       </c>
     </row>
     <row r="14">
@@ -917,20 +999,26 @@
         <v>7.35629680015826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1702107340097427</v>
+        <v>0.5287695527076721</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0330963209271431</v>
+        <v>0.05622236058115959</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.49165473  0.66961757  0.13047015]</t>
+          <t>[0.09199313 0.9985692  0.55303452]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.02627298 0.04088902 0.03353166]</t>
-        </is>
+          <t>[0.03962035 0.07647016 0.05781241]</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4192991852760315</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04846144467592239</v>
       </c>
     </row>
     <row r="15">
@@ -957,20 +1045,26 @@
         <v>10.5270026105767</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1386368572711945</v>
+        <v>-0.5529074668884277</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02550584822893143</v>
+        <v>0.03463110700249672</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.59855644  0.23426341 -0.20056639]</t>
+          <t>[-0.7900378  0.0193641 -0.4464606]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.02128829 0.03140664 0.02674986]</t>
-        </is>
+          <t>[0.02250434 0.04880089 0.0330354 ]</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.8165941834449768</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.03995800018310547</v>
       </c>
     </row>
     <row r="16">
@@ -997,20 +1091,26 @@
         <v>6.2683318247799</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.873599648475647</v>
+        <v>-1.220017671585083</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04496737569570541</v>
+        <v>0.06280609965324402</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-1.42573768 -0.43182869 -0.92571292]</t>
+          <t>[-1.57309367 -0.74231026 -1.12909094]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.02806411 0.06972175 0.05286347]</t>
-        </is>
+          <t>[0.03917721 0.0900791  0.06226829]</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-1.298470735549927</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06621939688920975</v>
       </c>
     </row>
     <row r="17">
@@ -1037,20 +1137,26 @@
         <v>3.23499494857128</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.219288110733032</v>
+        <v>-1.211596131324768</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06581789255142212</v>
+        <v>0.08025377988815308</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-1.5259041  -0.83043746 -1.16132695]</t>
+          <t>[-1.55893017 -0.84234364 -1.15595986]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.04939725 0.07932384 0.06703951]</t>
-        </is>
+          <t>[0.0607987  0.10642609 0.08266411]</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-1.186336398124695</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.07127756625413895</v>
       </c>
     </row>
     <row r="18">
@@ -1077,20 +1183,26 @@
         <v>18.8260788445098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6691514253616333</v>
+        <v>0.7866808772087097</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03365233540534973</v>
+        <v>0.06924906373023987</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.03521216  1.28368344  0.6517583 ]</t>
+          <t>[0.08750824 1.47560582 0.76640661]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.0277531  0.06078969 0.03304213]</t>
-        </is>
+          <t>[0.04051604 0.09861369 0.06920067]</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1.379966974258423</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09624979645013809</v>
       </c>
     </row>
     <row r="19">
@@ -1117,20 +1229,26 @@
         <v>14.3585518548811</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6100713014602661</v>
+        <v>-0.4752269387245178</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0329425260424614</v>
+        <v>0.07527537643909454</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-1.15749564  0.07343636 -0.47593395]</t>
+          <t>[-0.98180788  0.27773107 -0.36270247]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.00554269 0.05637135 0.02508976]</t>
-        </is>
+          <t>[0.05685977 0.09280836 0.07647141]</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.6642869710922241</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.07767963409423828</v>
       </c>
     </row>
     <row r="20">
@@ -1157,20 +1275,26 @@
         <v>10.6115825535449</v>
       </c>
       <c r="G20" t="n">
-        <v>0.236505389213562</v>
+        <v>0.3040385842323303</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01224703248590231</v>
+        <v>0.04608967155218124</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.14137334  0.62327106  0.22393613]</t>
+          <t>[5.46597326e-04 6.49011500e-01 3.07350368e-01]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.00336876 0.03218922 0.01221301]</t>
-        </is>
+          <t>[0.03709742 0.06121993 0.04604839]</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3016629219055176</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.04208427667617798</v>
       </c>
     </row>
     <row r="21">
@@ -1197,20 +1321,26 @@
         <v>2.43157137126769</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2203558087348938</v>
+        <v>-0.3882038593292236</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03822703659534454</v>
+        <v>0.04667861759662628</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.76998379  0.46414617 -0.26000682]</t>
+          <t>[-1.13474816  0.07814862 -0.45081568]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.03129407 0.04469617 0.0388163 ]</t>
-        </is>
+          <t>[0.03432846 0.08819972 0.05349586]</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0953119695186615</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.04044826328754425</v>
       </c>
     </row>
     <row r="22">
@@ -1237,20 +1367,26 @@
         <v>16.1921649824113</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2410093694925308</v>
+        <v>-0.5175597667694092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02653321996331215</v>
+        <v>0.06245569512248039</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.4151123  0.6741755  0.1507014]</t>
+          <t>[-1.25586081  0.34868118 -0.55419128]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.01830115 0.03435764 0.02580789]</t>
-        </is>
+          <t>[0.04704137 0.09288607 0.06470905]</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.1313098967075348</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.04385183751583099</v>
       </c>
     </row>
     <row r="23">
@@ -1277,20 +1413,26 @@
         <v>8.71508486022139</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.558719635009766</v>
+        <v>-0.05512773245573044</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08252980560064316</v>
+        <v>0.03883617371320724</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-1.8330721  -1.25610476 -1.54300184]</t>
+          <t>[-0.42533623  0.27806678 -0.03434617]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.07059922 0.10227482 0.08681631]</t>
-        </is>
+          <t>[0.0181805  0.04926371 0.03615951]</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1081564351916313</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.04756787419319153</v>
       </c>
     </row>
     <row r="24">
@@ -1317,20 +1459,26 @@
         <v>6.07329505645181</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04871219396591187</v>
+        <v>0.2156205326318741</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01686586439609528</v>
+        <v>0.06168270856142044</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.4147234   0.53949947 -0.03012024]</t>
+          <t>[-0.22467172  0.59690426  0.19450388]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.0110241  0.02869104 0.01725887]</t>
-        </is>
+          <t>[0.05470646 0.07329829 0.06434052]</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.09915582835674286</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.05315675586462021</v>
       </c>
     </row>
     <row r="25">
@@ -1357,20 +1505,26 @@
         <v>13.2804518023977</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.35700923204422</v>
+        <v>-0.1011682376265526</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03713282942771912</v>
+        <v>0.03167309612035751</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.86906536 -0.08321102 -0.3974715 ]</t>
+          <t>[-0.41700986  0.30878724 -0.02610688]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.03040424 0.04360452 0.03675105]</t>
-        </is>
+          <t>[0.02011683 0.04495395 0.03111337]</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.2326800674200058</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.03049039840698242</v>
       </c>
     </row>
     <row r="26">
@@ -1397,20 +1551,26 @@
         <v>14.8833988150265</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4390194416046143</v>
+        <v>0.702965259552002</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02255004830658436</v>
+        <v>0.06230498850345612</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.32235494  1.02273532  0.3735517 ]</t>
+          <t>[0.13597514 1.25760751 0.72667562]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.00765629 0.04712547 0.01866704]</t>
-        </is>
+          <t>[0.05370538 0.07812817 0.06761396]</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5747971534729004</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.05778002738952637</v>
       </c>
     </row>
     <row r="27">
@@ -1437,20 +1597,26 @@
         <v>5.65626339296861</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.7156450152397156</v>
+        <v>-0.5864198207855225</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0390971451997757</v>
+        <v>0.07218179106712341</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-1.12505203 -0.32451208 -0.69799001]</t>
+          <t>[-1.03592641 -0.14822658 -0.58761361]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.02305686 0.05728865 0.0398199 ]</t>
-        </is>
+          <t>[0.0636823  0.09279897 0.07514701]</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.8082785606384277</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07531751692295074</v>
       </c>
     </row>
     <row r="28">
@@ -1477,20 +1643,26 @@
         <v>4.06985188179461</v>
       </c>
       <c r="G28" t="n">
-        <v>1.995029449462891</v>
+        <v>1.390187621116638</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1043620109558105</v>
+        <v>0.08590622991323471</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[1.72055325 2.3640968  2.08375799]</t>
+          <t>[0.95510154 1.69341421 1.32972541]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.09407757 0.11886727 0.11537976]</t>
-        </is>
+          <t>[0.06099433 0.10482111 0.0852202 ]</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1.247006416320801</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.06919330358505249</v>
       </c>
     </row>
     <row r="29">
@@ -1517,20 +1689,26 @@
         <v>10.5427542371552</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3903355300426483</v>
+        <v>-0.7520390152931213</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04684846103191376</v>
+        <v>0.07708680629730225</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-1.01817134  0.07677543 -0.48393092]</t>
+          <t>[-1.25289409 -0.1980394  -0.72035326]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.04240205 0.05206073 0.04782799]</t>
-        </is>
+          <t>[0.06232253 0.10382156 0.07935784]</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.6902776956558228</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06898953765630722</v>
       </c>
     </row>
     <row r="30">
@@ -1557,20 +1735,26 @@
         <v>15.7041429053511</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06501074880361557</v>
+        <v>1.095578789710999</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003940039314329624</v>
+        <v>0.1039659082889557</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[-0.61330938  0.45821418 -0.07066235]</t>
+          <t>[0.61287082 1.60459879 1.08162521]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.00128864 0.00646487 0.00132134]</t>
-        </is>
+          <t>[0.08735237 0.12940692 0.10990288]</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1.005183696746826</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.09295369684696198</v>
       </c>
     </row>
     <row r="31">
@@ -1597,20 +1781,26 @@
         <v>17.2939233224719</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.02096069604158401</v>
+        <v>0.03477200865745544</v>
       </c>
       <c r="H31" t="n">
-        <v>0.009488357231020927</v>
+        <v>0.006433045491576195</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.45041662  0.52216668  0.00856813]</t>
+          <t>[-0.47585416  0.49307016  0.03669924]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.00338615 0.01719976 0.00723484]</t>
-        </is>
+          <t>[0.00345278 0.00706986 0.00345912]</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.08744661509990692</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.00882011279463768</v>
       </c>
     </row>
     <row r="32">
@@ -1637,20 +1827,26 @@
         <v>6.64822149110939</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6008092164993286</v>
+        <v>-0.8124968409538269</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03394017741084099</v>
+        <v>0.06014568731188774</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.98420441 -0.13523634 -0.56527377]</t>
+          <t>[-1.28114854 -0.19952951 -0.69317622]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.02598786 0.04955934 0.03307965]</t>
-        </is>
+          <t>[0.03014321 0.08141592 0.06231777]</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.9289817810058594</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.06130519136786461</v>
       </c>
     </row>
     <row r="33">
@@ -1677,20 +1873,26 @@
         <v>9.364352421008711</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7180631160736084</v>
+        <v>0.05554442852735519</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03764420002698898</v>
+        <v>0.06152673438191414</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-1.09101665 -0.16076651 -0.68073169]</t>
+          <t>[-0.29160501  0.46780756  0.0256713 ]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.01402545 0.05638156 0.03898944]</t>
-        </is>
+          <t>[0.05427683 0.07032831 0.06158951]</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.05405858159065247</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.05977777019143105</v>
       </c>
     </row>
     <row r="34">
@@ -1717,20 +1919,26 @@
         <v>8.15506388476593</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.5534260869026184</v>
+        <v>0.04015905410051346</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02942603826522827</v>
+        <v>0.0263981819152832</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-1.13385622  0.21447437 -0.46107918]</t>
+          <t>[-0.49033793  0.54934969  0.08269495]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.00405691 0.06144009 0.02894303]</t>
-        </is>
+          <t>[0.01437622 0.03742081 0.02339861]</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6173230409622192</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.04246577247977257</v>
       </c>
     </row>
     <row r="35">
@@ -1757,20 +1965,26 @@
         <v>15.9320417767385</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5011665225028992</v>
+        <v>-0.4410761594772339</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02600891701877117</v>
+        <v>0.05397183820605278</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[0.00745176 0.95277745 0.37576618]</t>
+          <t>[-1.04169092  0.19495477 -0.36863648]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.00922799 0.04932347 0.02381043]</t>
-        </is>
+          <t>[0.04109541 0.07724004 0.0526435 ]</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.5545738935470581</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.05162465944886208</v>
       </c>
     </row>
     <row r="36">
@@ -1797,20 +2011,26 @@
         <v>11.9378472875586</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5582351684570312</v>
+        <v>0.2385567277669907</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02870669402182102</v>
+        <v>0.05269913375377655</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[0.01191413 1.21290378 0.60581884]</t>
+          <t>[-0.27240301  0.93346293  0.30967334]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.01120022 0.06143675 0.03151232]</t>
-        </is>
+          <t>[0.04045922 0.06673532 0.05175589]</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1503380686044693</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.04858067631721497</v>
       </c>
     </row>
     <row r="37">
@@ -1837,20 +2057,26 @@
         <v>18.6256353495308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9495816230773926</v>
+        <v>0.9261980056762695</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04958160221576691</v>
+        <v>0.08531647920608521</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.19619034 1.93169488 1.0755306 ]</t>
+          <t>[0.38791136 1.70740334 0.96533345]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.01676744 0.09486051 0.05367797]</t>
-        </is>
+          <t>[0.06346444 0.12982593 0.08837096]</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1.103618979454041</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0882098525762558</v>
       </c>
     </row>
     <row r="38">
@@ -1877,20 +2103,26 @@
         <v>2.97573692676797</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2176984995603561</v>
+        <v>0.4072521328926086</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01137256436049938</v>
+        <v>0.05155401304364204</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.86601842  0.3470293  -0.21720406]</t>
+          <t>[-0.10639457  0.90394993  0.44015269]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.00092556 0.04324273 0.01048126]</t>
-        </is>
+          <t>[0.03691553 0.07690445 0.05380597]</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5725429058074951</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.05574893951416016</v>
       </c>
     </row>
     <row r="39">
@@ -1917,20 +2149,26 @@
         <v>13.0219623560134</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.6548660397529602</v>
+        <v>-0.4090550541877747</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03302009403705597</v>
+        <v>0.04113860428333282</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-1.34183373 -0.17406423 -0.73992733]</t>
+          <t>[-0.94940973 -0.0094892  -0.41137548]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.02398642 0.06500569 0.03592657]</t>
-        </is>
+          <t>[0.02423889 0.06947527 0.04243998]</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.2740277945995331</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.03071166947484016</v>
       </c>
     </row>
     <row r="40">
@@ -1957,20 +2195,26 @@
         <v>12.5968651960161</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9774518609046936</v>
+        <v>0.8194671869277954</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05392277985811234</v>
+        <v>0.06237983703613281</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.53377176 1.45304049 0.95732011]</t>
+          <t>[0.3377873  1.13995837 0.70312331]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[0.03413648 0.07800368 0.0583565 ]</t>
-        </is>
+          <t>[0.04710737 0.0920979  0.06795168]</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1.19301438331604</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.08086621761322021</v>
       </c>
     </row>
     <row r="41">
@@ -1997,20 +2241,26 @@
         <v>13.9818037974324</v>
       </c>
       <c r="G41" t="n">
-        <v>0.320769190788269</v>
+        <v>-0.2920284569263458</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01731883361935616</v>
+        <v>0.05626377463340759</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.15147513  0.98531941  0.4155059 ]</t>
+          <t>[-0.98641719  0.21465831 -0.31247956]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.00532909 0.05391674 0.02304264]</t>
-        </is>
+          <t>[0.04611212 0.07551818 0.05938195]</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.4681669175624847</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.06339485198259354</v>
       </c>
     </row>
     <row r="42">
@@ -2037,20 +2287,26 @@
         <v>12.0011423977921</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3193209171295166</v>
+        <v>0.04717326164245605</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01981884241104126</v>
+        <v>0.05494603514671326</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-1.33877839  0.28168455 -0.41087112]</t>
+          <t>[-0.72985458  0.63167139 -0.10167475]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.01270444 0.03592283 0.01887577]</t>
-        </is>
+          <t>[0.03972331 0.06838097 0.05194936]</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.2478090673685074</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.04629715904593468</v>
       </c>
     </row>
     <row r="43">
@@ -2077,20 +2333,26 @@
         <v>19.1464856672245</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3685513138771057</v>
+        <v>0.07600373029708862</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01926205866038799</v>
+        <v>0.04631048068404198</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.78430309  0.12334726 -0.29410388]</t>
+          <t>[-0.31511007  0.53418442  0.16779422]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.00349175 0.03953158 0.01717883]</t>
-        </is>
+          <t>[0.03394955 0.05360571 0.04250315]</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.1495274305343628</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.05401872098445892</v>
       </c>
     </row>
     <row r="44">
@@ -2117,20 +2379,26 @@
         <v>3.81350478775125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8326622247695923</v>
+        <v>0.8496233224868774</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04352710396051407</v>
+        <v>0.06787902861833572</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.2987772  1.6781985  0.99595366]</t>
+          <t>[0.19449165 1.60430588 0.81629751]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.0180221  0.08439252 0.05177372]</t>
-        </is>
+          <t>[0.04743417 0.10280915 0.0687287 ]</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5170062184333801</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05065635591745377</v>
       </c>
     </row>
     <row r="45">
@@ -2157,20 +2425,26 @@
         <v>4.34862912988896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2389197945594788</v>
+        <v>0.0006328560411930084</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01220795046538115</v>
+        <v>0.03006437607109547</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.25119815  0.80729351  0.24444328]</t>
+          <t>[-0.37649654  0.50873801  0.05122039]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.00344356 0.03589504 0.01118095]</t>
-        </is>
+          <t>[0.0230929  0.0367168  0.02773917]</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.2556396722793579</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0376274399459362</v>
       </c>
     </row>
     <row r="46">
@@ -2197,20 +2471,26 @@
         <v>5.35937655592283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8651721477508545</v>
+        <v>0.0616900771856308</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04807129502296448</v>
+        <v>0.01938040554523468</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.12445901 1.55606748 0.84756014]</t>
+          <t>[-0.67236152  0.54846095  0.01724324]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.03015236 0.08436965 0.04942348]</t>
-        </is>
+          <t>[0.00413559 0.03544227 0.01596294]</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.2252323627471924</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.02248260751366615</v>
       </c>
     </row>
     <row r="47">
@@ -2237,20 +2517,26 @@
         <v>15.5364012150061</v>
       </c>
       <c r="G47" t="n">
-        <v>2.381232738494873</v>
+        <v>1.301733374595642</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1280155181884766</v>
+        <v>0.07446470111608505</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[1.84660539 2.84187033 2.35165023]</t>
+          <t>[0.81923104 1.84646162 1.27283841]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[0.11282031 0.15294303 0.13811298]</t>
-        </is>
+          <t>[0.05423131 0.10478592 0.07887117]</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1.652624249458313</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.09266138076782227</v>
       </c>
     </row>
     <row r="48">
@@ -2277,20 +2563,26 @@
         <v>5.00522096920462</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1973857581615448</v>
+        <v>0.20124451816082</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01299405284225941</v>
+        <v>0.03731681406497955</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.83087329  0.46971365 -0.05779003]</t>
+          <t>[-0.17942923  0.61646686  0.11294843]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.00594148 0.03082161 0.01093318]</t>
-        </is>
+          <t>[0.02736563 0.05028886 0.03638391]</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1925524473190308</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.03707487508654594</v>
       </c>
     </row>
     <row r="49">
@@ -2317,20 +2609,26 @@
         <v>4.73533373690427</v>
       </c>
       <c r="G49" t="n">
-        <v>2.127722978591919</v>
+        <v>1.648519158363342</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1113743782043457</v>
+        <v>0.1214254051446915</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[1.58315111 2.52642044 2.10280369]</t>
+          <t>[1.08275852 1.9617987  1.52680244]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[0.09180337 0.13155158 0.11705767]</t>
-        </is>
+          <t>[0.1020717  0.1595883  0.12666218]</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1.684883713722229</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.1183516383171082</v>
       </c>
     </row>
     <row r="50">
@@ -2357,20 +2655,26 @@
         <v>7.15116605857213</v>
       </c>
       <c r="G50" t="n">
-        <v>1.734889268875122</v>
+        <v>1.197739958763123</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09115824103355408</v>
+        <v>0.1023366153240204</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[1.21259712 2.39414044 1.76831154]</t>
+          <t>[0.69424438 2.01106022 1.25466933]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.06934602 0.1187705  0.10152632]</t>
-        </is>
+          <t>[0.07888315 0.14813313 0.10639412]</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1.312574505805969</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1022734418511391</v>
       </c>
     </row>
     <row r="51">
@@ -2397,20 +2701,26 @@
         <v>6.63548612638398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3413133025169373</v>
+        <v>0.8734874725341797</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01727728173136711</v>
+        <v>0.0479634553194046</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[-0.21475496  0.9146465   0.4306041 ]</t>
+          <t>[0.38891551 1.55302163 0.78755301]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.00823822 0.03942694 0.01695835]</t>
-        </is>
+          <t>[0.03138691 0.08711321 0.04904984]</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.141569048166275</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.02944779023528099</v>
       </c>
     </row>
     <row r="52">
@@ -2437,20 +2747,26 @@
         <v>16.5619208190305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2636563777923584</v>
+        <v>-0.241707056760788</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04525246471166611</v>
+        <v>0.05257568880915642</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.33530689  0.72899194  0.22827541]</t>
+          <t>[-0.87987037  0.37898785 -0.23871507]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.0389373  0.05111423 0.04700151]</t>
-        </is>
+          <t>[0.03205732 0.06793461 0.05081328]</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.5166813135147095</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.06114105135202408</v>
       </c>
     </row>
     <row r="53">
@@ -2477,20 +2793,26 @@
         <v>8.351801436124299</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2305612117052078</v>
+        <v>0.387292206287384</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02669936418533325</v>
+        <v>0.0319247841835022</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.66294563  0.20870119 -0.2226269 ]</t>
+          <t>[-0.0029513   0.74236061  0.3253791 ]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.02174497 0.03438059 0.02737962]</t>
-        </is>
+          <t>[0.013795   0.04764055 0.0296451 ]</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3422026038169861</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.02575396746397018</v>
       </c>
     </row>
   </sheetData>
